--- a/data/05_input/zm.rn20a.xlsx
+++ b/data/05_input/zm.rn20a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/5ABB0FC6-CBC2-4A92-B077-6F4366D3368D/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/D66C6C04-31BF-4903-B79C-BAC313A0CFD8/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A4996E-09BD-974F-8ADA-2E22E4DCF380}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E41BC1-7C30-4C4D-B7F4-20C5B6EB4264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9920" yWindow="2260" windowWidth="15820" windowHeight="17560" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="15300" yWindow="3320" windowWidth="20400" windowHeight="17560" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,12 +258,6 @@
     <t>HY34</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200226_A00223_0330_BH2WT2DSXY/Springer_Project_069/HY34_S88_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200226_A00223_0330_BH2WT2DSXY/Springer_Project_069/HY34_S88_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>HY35</t>
   </si>
   <si>
@@ -2785,6 +2779,12 @@
   </si>
   <si>
     <t>200128_A00223_0311_AHLCMJDSXX/TC9_S18_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200226_A00223_0330_BH2WT2DSXY/HY34_S88_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200226_A00223_0330_BH2WT2DSXY/HY34_S88_R2_001.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -3139,8 +3139,8 @@
   <dimension ref="A1:K292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K292" sqref="J2:K292"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3206,13 +3206,13 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J2" t="s">
+        <v>338</v>
+      </c>
+      <c r="K2" t="s">
         <v>339</v>
-      </c>
-      <c r="J2" t="s">
-        <v>340</v>
-      </c>
-      <c r="K2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3238,13 +3238,13 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3270,13 +3270,13 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3302,13 +3302,13 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3334,13 +3334,13 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3366,13 +3366,13 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3398,13 +3398,13 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3430,13 +3430,13 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3462,13 +3462,13 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3494,13 +3494,13 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3526,13 +3526,13 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3558,13 +3558,13 @@
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3590,13 +3590,13 @@
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3622,13 +3622,13 @@
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3654,13 +3654,13 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3686,13 +3686,13 @@
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3718,13 +3718,13 @@
         <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3750,13 +3750,13 @@
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3782,13 +3782,13 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3814,13 +3814,13 @@
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3846,13 +3846,13 @@
         <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3878,13 +3878,13 @@
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -3910,13 +3910,13 @@
         <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3942,13 +3942,13 @@
         <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -3974,13 +3974,13 @@
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J26" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K26" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -4006,13 +4006,13 @@
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -4038,13 +4038,13 @@
         <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K28" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -4070,13 +4070,13 @@
         <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J29" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -4102,13 +4102,13 @@
         <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J30" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -4134,13 +4134,13 @@
         <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J31" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K31" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -4166,13 +4166,13 @@
         <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -4198,13 +4198,13 @@
         <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J33" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K33" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -4230,13 +4230,13 @@
         <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K34" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -4262,13 +4262,13 @@
         <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J35" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K35" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -4294,13 +4294,13 @@
         <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J36" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K36" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -4326,13 +4326,13 @@
         <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K37" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -4358,13 +4358,13 @@
         <v>15</v>
       </c>
       <c r="H38" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J38" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -4390,13 +4390,13 @@
         <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J39" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K39" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -4422,13 +4422,13 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J40" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K40" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -4454,13 +4454,13 @@
         <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J41" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K41" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -4486,13 +4486,13 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J42" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K42" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -4518,13 +4518,13 @@
         <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J43" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K43" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -4550,13 +4550,13 @@
         <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K44" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -4582,13 +4582,13 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J45" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K45" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -4614,13 +4614,13 @@
         <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J46" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K46" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -4646,13 +4646,13 @@
         <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J47" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K47" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -4678,13 +4678,13 @@
         <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J48" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K48" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -4710,13 +4710,13 @@
         <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J49" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K49" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -4742,13 +4742,13 @@
         <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J50" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K50" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -4774,13 +4774,13 @@
         <v>15</v>
       </c>
       <c r="H51" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J51" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K51" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -4806,13 +4806,13 @@
         <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J52" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K52" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -4838,13 +4838,13 @@
         <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J53" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K53" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -4870,13 +4870,13 @@
         <v>15</v>
       </c>
       <c r="H54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J54" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K54" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -4902,13 +4902,13 @@
         <v>15</v>
       </c>
       <c r="H55" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J55" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K55" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -4934,18 +4934,18 @@
         <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J56" t="s">
-        <v>77</v>
+        <v>918</v>
       </c>
       <c r="K56" t="s">
-        <v>78</v>
+        <v>919</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
@@ -4966,18 +4966,18 @@
         <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J57" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K57" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
@@ -4998,18 +4998,18 @@
         <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J58" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K58" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
@@ -5030,18 +5030,18 @@
         <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J59" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K59" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
@@ -5062,18 +5062,18 @@
         <v>15</v>
       </c>
       <c r="H60" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J60" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K60" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
@@ -5094,18 +5094,18 @@
         <v>15</v>
       </c>
       <c r="H61" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J61" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K61" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
@@ -5126,18 +5126,18 @@
         <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J62" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K62" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -5158,18 +5158,18 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J63" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K63" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
@@ -5190,18 +5190,18 @@
         <v>15</v>
       </c>
       <c r="H64" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J64" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K64" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
@@ -5222,18 +5222,18 @@
         <v>15</v>
       </c>
       <c r="H65" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J65" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K65" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
@@ -5254,18 +5254,18 @@
         <v>15</v>
       </c>
       <c r="H66" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J66" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K66" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
@@ -5286,18 +5286,18 @@
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J67" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K67" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
@@ -5318,18 +5318,18 @@
         <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J68" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K68" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
@@ -5350,18 +5350,18 @@
         <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J69" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K69" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
@@ -5382,18 +5382,18 @@
         <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J70" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K70" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -5414,18 +5414,18 @@
         <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J71" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K71" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
@@ -5446,18 +5446,18 @@
         <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J72" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K72" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
@@ -5478,18 +5478,18 @@
         <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J73" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K73" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
         <v>12</v>
@@ -5510,18 +5510,18 @@
         <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J74" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K74" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
@@ -5542,18 +5542,18 @@
         <v>15</v>
       </c>
       <c r="H75" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J75" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K75" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
         <v>12</v>
@@ -5574,18 +5574,18 @@
         <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J76" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K76" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
@@ -5606,18 +5606,18 @@
         <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J77" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K77" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
         <v>12</v>
@@ -5638,18 +5638,18 @@
         <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J78" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K78" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
         <v>12</v>
@@ -5670,18 +5670,18 @@
         <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J79" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K79" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B80" t="s">
         <v>12</v>
@@ -5702,18 +5702,18 @@
         <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J80" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K80" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
@@ -5734,18 +5734,18 @@
         <v>15</v>
       </c>
       <c r="H81" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J81" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K81" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
         <v>12</v>
@@ -5766,18 +5766,18 @@
         <v>15</v>
       </c>
       <c r="H82" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J82" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K82" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B83" t="s">
         <v>12</v>
@@ -5798,18 +5798,18 @@
         <v>15</v>
       </c>
       <c r="H83" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J83" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K83" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B84" t="s">
         <v>12</v>
@@ -5830,18 +5830,18 @@
         <v>15</v>
       </c>
       <c r="H84" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J84" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K84" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B85" t="s">
         <v>12</v>
@@ -5862,18 +5862,18 @@
         <v>15</v>
       </c>
       <c r="H85" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J85" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K85" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B86" t="s">
         <v>12</v>
@@ -5894,18 +5894,18 @@
         <v>15</v>
       </c>
       <c r="H86" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J86" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K86" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B87" t="s">
         <v>12</v>
@@ -5926,18 +5926,18 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J87" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K87" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
         <v>12</v>
@@ -5958,18 +5958,18 @@
         <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J88" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K88" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
@@ -5990,18 +5990,18 @@
         <v>15</v>
       </c>
       <c r="H89" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J89" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K89" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B90" t="s">
         <v>12</v>
@@ -6022,18 +6022,18 @@
         <v>15</v>
       </c>
       <c r="H90" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J90" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K90" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
         <v>12</v>
@@ -6054,18 +6054,18 @@
         <v>15</v>
       </c>
       <c r="H91" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J91" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K91" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
@@ -6086,18 +6086,18 @@
         <v>15</v>
       </c>
       <c r="H92" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J92" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K92" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
@@ -6118,18 +6118,18 @@
         <v>15</v>
       </c>
       <c r="H93" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J93" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K93" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
@@ -6150,18 +6150,18 @@
         <v>15</v>
       </c>
       <c r="H94" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J94" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K94" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
@@ -6182,18 +6182,18 @@
         <v>15</v>
       </c>
       <c r="H95" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J95" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K95" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B96" t="s">
         <v>12</v>
@@ -6214,18 +6214,18 @@
         <v>15</v>
       </c>
       <c r="H96" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J96" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K96" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B97" t="s">
         <v>12</v>
@@ -6246,18 +6246,18 @@
         <v>15</v>
       </c>
       <c r="H97" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J97" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K97" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B98" t="s">
         <v>12</v>
@@ -6278,18 +6278,18 @@
         <v>15</v>
       </c>
       <c r="H98" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J98" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K98" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
@@ -6310,18 +6310,18 @@
         <v>15</v>
       </c>
       <c r="H99" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J99" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K99" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B100" t="s">
         <v>12</v>
@@ -6342,18 +6342,18 @@
         <v>15</v>
       </c>
       <c r="H100" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J100" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K100" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B101" t="s">
         <v>12</v>
@@ -6374,18 +6374,18 @@
         <v>15</v>
       </c>
       <c r="H101" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J101" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K101" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B102" t="s">
         <v>12</v>
@@ -6406,18 +6406,18 @@
         <v>15</v>
       </c>
       <c r="H102" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J102" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="K102" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B103" t="s">
         <v>12</v>
@@ -6438,18 +6438,18 @@
         <v>15</v>
       </c>
       <c r="H103" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J103" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K103" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B104" t="s">
         <v>12</v>
@@ -6470,18 +6470,18 @@
         <v>15</v>
       </c>
       <c r="H104" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J104" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K104" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B105" t="s">
         <v>12</v>
@@ -6502,18 +6502,18 @@
         <v>15</v>
       </c>
       <c r="H105" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J105" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K105" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B106" t="s">
         <v>12</v>
@@ -6534,18 +6534,18 @@
         <v>15</v>
       </c>
       <c r="H106" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J106" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K106" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B107" t="s">
         <v>12</v>
@@ -6566,18 +6566,18 @@
         <v>15</v>
       </c>
       <c r="H107" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J107" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K107" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B108" t="s">
         <v>12</v>
@@ -6598,18 +6598,18 @@
         <v>15</v>
       </c>
       <c r="H108" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J108" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K108" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B109" t="s">
         <v>12</v>
@@ -6630,18 +6630,18 @@
         <v>15</v>
       </c>
       <c r="H109" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J109" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K109" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B110" t="s">
         <v>12</v>
@@ -6662,18 +6662,18 @@
         <v>15</v>
       </c>
       <c r="H110" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J110" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K110" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B111" t="s">
         <v>12</v>
@@ -6694,18 +6694,18 @@
         <v>15</v>
       </c>
       <c r="H111" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J111" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K111" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B112" t="s">
         <v>12</v>
@@ -6726,18 +6726,18 @@
         <v>15</v>
       </c>
       <c r="H112" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J112" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K112" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B113" t="s">
         <v>12</v>
@@ -6758,18 +6758,18 @@
         <v>15</v>
       </c>
       <c r="H113" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J113" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K113" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B114" t="s">
         <v>12</v>
@@ -6790,18 +6790,18 @@
         <v>15</v>
       </c>
       <c r="H114" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J114" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K114" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B115" t="s">
         <v>12</v>
@@ -6822,18 +6822,18 @@
         <v>15</v>
       </c>
       <c r="H115" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J115" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K115" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B116" t="s">
         <v>12</v>
@@ -6854,18 +6854,18 @@
         <v>15</v>
       </c>
       <c r="H116" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J116" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K116" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B117" t="s">
         <v>12</v>
@@ -6886,18 +6886,18 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J117" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K117" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B118" t="s">
         <v>12</v>
@@ -6918,18 +6918,18 @@
         <v>15</v>
       </c>
       <c r="H118" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J118" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K118" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B119" t="s">
         <v>12</v>
@@ -6950,18 +6950,18 @@
         <v>15</v>
       </c>
       <c r="H119" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J119" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K119" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B120" t="s">
         <v>12</v>
@@ -6982,18 +6982,18 @@
         <v>15</v>
       </c>
       <c r="H120" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J120" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K120" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
@@ -7014,18 +7014,18 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J121" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K121" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
@@ -7046,18 +7046,18 @@
         <v>15</v>
       </c>
       <c r="H122" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J122" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K122" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
@@ -7078,18 +7078,18 @@
         <v>15</v>
       </c>
       <c r="H123" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J123" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K123" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B124" t="s">
         <v>12</v>
@@ -7110,18 +7110,18 @@
         <v>15</v>
       </c>
       <c r="H124" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J124" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K124" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B125" t="s">
         <v>12</v>
@@ -7142,18 +7142,18 @@
         <v>15</v>
       </c>
       <c r="H125" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J125" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K125" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B126" t="s">
         <v>12</v>
@@ -7174,18 +7174,18 @@
         <v>15</v>
       </c>
       <c r="H126" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J126" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K126" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
@@ -7206,18 +7206,18 @@
         <v>15</v>
       </c>
       <c r="H127" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J127" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K127" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
@@ -7235,27 +7235,27 @@
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H128" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J128" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K128" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D129" t="s">
         <v>19</v>
@@ -7267,21 +7267,21 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H129" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J129" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K129" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -7299,27 +7299,27 @@
         <v>25</v>
       </c>
       <c r="G130" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H130" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J130" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K130" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
       </c>
       <c r="C131" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D131" t="s">
         <v>19</v>
@@ -7331,27 +7331,27 @@
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H131" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J131" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K131" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D132" t="s">
         <v>19</v>
@@ -7363,27 +7363,27 @@
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H132" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J132" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K132" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B133" t="s">
         <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D133" t="s">
         <v>19</v>
@@ -7395,21 +7395,21 @@
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H133" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J133" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K133" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
@@ -7427,27 +7427,27 @@
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H134" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J134" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K134" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D135" t="s">
         <v>19</v>
@@ -7459,27 +7459,27 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H135" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J135" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K135" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D136" t="s">
         <v>19</v>
@@ -7491,27 +7491,27 @@
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H136" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J136" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K136" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D137" t="s">
         <v>19</v>
@@ -7523,27 +7523,27 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H137" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J137" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K137" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B138" t="s">
         <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D138" t="s">
         <v>19</v>
@@ -7555,27 +7555,27 @@
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H138" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J138" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K138" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B139" t="s">
         <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D139" t="s">
         <v>19</v>
@@ -7587,27 +7587,27 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H139" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J139" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K139" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B140" t="s">
         <v>12</v>
       </c>
       <c r="C140" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D140" t="s">
         <v>19</v>
@@ -7619,27 +7619,27 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H140" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J140" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K140" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B141" t="s">
         <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D141" t="s">
         <v>19</v>
@@ -7651,27 +7651,27 @@
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H141" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J141" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K141" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B142" t="s">
         <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D142" t="s">
         <v>19</v>
@@ -7683,27 +7683,27 @@
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H142" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J142" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K142" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B143" t="s">
         <v>12</v>
       </c>
       <c r="C143" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D143" t="s">
         <v>19</v>
@@ -7715,27 +7715,27 @@
         <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H143" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J143" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K143" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D144" t="s">
         <v>19</v>
@@ -7747,21 +7747,21 @@
         <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H144" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J144" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="K144" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B145" t="s">
         <v>12</v>
@@ -7779,21 +7779,21 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H145" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J145" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="K145" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
@@ -7811,27 +7811,27 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H146" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J146" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K146" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B147" t="s">
         <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D147" t="s">
         <v>14</v>
@@ -7843,27 +7843,27 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H147" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J147" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="K147" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B148" t="s">
         <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D148" t="s">
         <v>14</v>
@@ -7875,27 +7875,27 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H148" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J148" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K148" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B149" t="s">
         <v>12</v>
       </c>
       <c r="C149" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D149" t="s">
         <v>14</v>
@@ -7907,27 +7907,27 @@
         <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H149" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J149" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K149" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B150" t="s">
         <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D150" t="s">
         <v>19</v>
@@ -7939,27 +7939,27 @@
         <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H150" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J150" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K150" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B151" t="s">
         <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D151" t="s">
         <v>14</v>
@@ -7971,27 +7971,27 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H151" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J151" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="K151" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B152" t="s">
         <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D152" t="s">
         <v>14</v>
@@ -8003,27 +8003,27 @@
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H152" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J152" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K152" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D153" t="s">
         <v>14</v>
@@ -8035,27 +8035,27 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H153" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J153" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="K153" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B154" t="s">
         <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D154" t="s">
         <v>14</v>
@@ -8067,27 +8067,27 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H154" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J154" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="K154" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B155" t="s">
         <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D155" t="s">
         <v>14</v>
@@ -8099,27 +8099,27 @@
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H155" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J155" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="K155" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B156" t="s">
         <v>12</v>
       </c>
       <c r="C156" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D156" t="s">
         <v>14</v>
@@ -8131,27 +8131,27 @@
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H156" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J156" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="K156" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B157" t="s">
         <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D157" t="s">
         <v>14</v>
@@ -8163,27 +8163,27 @@
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H157" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J157" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="K157" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B158" t="s">
         <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D158" t="s">
         <v>14</v>
@@ -8195,27 +8195,27 @@
         <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H158" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J158" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K158" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B159" t="s">
         <v>12</v>
       </c>
       <c r="C159" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D159" t="s">
         <v>14</v>
@@ -8227,27 +8227,27 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H159" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J159" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K159" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B160" t="s">
         <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D160" t="s">
         <v>14</v>
@@ -8259,27 +8259,27 @@
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H160" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J160" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K160" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B161" t="s">
         <v>12</v>
       </c>
       <c r="C161" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D161" t="s">
         <v>19</v>
@@ -8291,21 +8291,21 @@
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H161" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J161" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K161" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B162" t="s">
         <v>12</v>
@@ -8323,27 +8323,27 @@
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H162" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J162" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K162" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B163" t="s">
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D163" t="s">
         <v>14</v>
@@ -8355,27 +8355,27 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H163" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J163" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="K163" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B164" t="s">
         <v>12</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D164" t="s">
         <v>14</v>
@@ -8387,27 +8387,27 @@
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H164" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J164" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K164" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B165" t="s">
         <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D165" t="s">
         <v>14</v>
@@ -8419,27 +8419,27 @@
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H165" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J165" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K165" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B166" t="s">
         <v>12</v>
       </c>
       <c r="C166" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D166" t="s">
         <v>14</v>
@@ -8451,27 +8451,27 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H166" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J166" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K166" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B167" t="s">
         <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D167" t="s">
         <v>14</v>
@@ -8483,27 +8483,27 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H167" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J167" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K167" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B168" t="s">
         <v>12</v>
       </c>
       <c r="C168" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D168" t="s">
         <v>14</v>
@@ -8515,27 +8515,27 @@
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H168" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J168" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K168" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B169" t="s">
         <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D169" t="s">
         <v>14</v>
@@ -8547,27 +8547,27 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H169" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J169" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="K169" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B170" t="s">
         <v>12</v>
       </c>
       <c r="C170" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D170" t="s">
         <v>14</v>
@@ -8579,27 +8579,27 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H170" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J170" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="K170" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B171" t="s">
         <v>12</v>
       </c>
       <c r="C171" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D171" t="s">
         <v>14</v>
@@ -8611,27 +8611,27 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J171" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="K171" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B172" t="s">
         <v>12</v>
       </c>
       <c r="C172" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D172" t="s">
         <v>19</v>
@@ -8643,21 +8643,21 @@
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H172" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J172" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="K172" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B173" t="s">
         <v>12</v>
@@ -8675,21 +8675,21 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H173" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J173" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="K173" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B174" t="s">
         <v>12</v>
@@ -8707,27 +8707,27 @@
         <v>25</v>
       </c>
       <c r="G174" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H174" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J174" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="K174" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B175" t="s">
         <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D175" t="s">
         <v>14</v>
@@ -8739,27 +8739,27 @@
         <v>25</v>
       </c>
       <c r="G175" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H175" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J175" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K175" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B176" t="s">
         <v>12</v>
       </c>
       <c r="C176" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D176" t="s">
         <v>14</v>
@@ -8771,27 +8771,27 @@
         <v>25</v>
       </c>
       <c r="G176" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H176" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J176" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="K176" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B177" t="s">
         <v>12</v>
       </c>
       <c r="C177" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D177" t="s">
         <v>14</v>
@@ -8803,27 +8803,27 @@
         <v>25</v>
       </c>
       <c r="G177" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H177" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J177" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K177" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B178" t="s">
         <v>12</v>
       </c>
       <c r="C178" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D178" t="s">
         <v>14</v>
@@ -8835,27 +8835,27 @@
         <v>25</v>
       </c>
       <c r="G178" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H178" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J178" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="K178" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B179" t="s">
         <v>12</v>
       </c>
       <c r="C179" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D179" t="s">
         <v>14</v>
@@ -8867,27 +8867,27 @@
         <v>25</v>
       </c>
       <c r="G179" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H179" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J179" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K179" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B180" t="s">
         <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D180" t="s">
         <v>14</v>
@@ -8899,27 +8899,27 @@
         <v>25</v>
       </c>
       <c r="G180" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H180" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J180" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K180" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B181" t="s">
         <v>12</v>
       </c>
       <c r="C181" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D181" t="s">
         <v>14</v>
@@ -8931,27 +8931,27 @@
         <v>25</v>
       </c>
       <c r="G181" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H181" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J181" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="K181" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B182" t="s">
         <v>12</v>
       </c>
       <c r="C182" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D182" t="s">
         <v>14</v>
@@ -8963,27 +8963,27 @@
         <v>25</v>
       </c>
       <c r="G182" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H182" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J182" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="K182" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B183" t="s">
         <v>12</v>
       </c>
       <c r="C183" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D183" t="s">
         <v>19</v>
@@ -8995,27 +8995,27 @@
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H183" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J183" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="K183" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B184" t="s">
         <v>12</v>
       </c>
       <c r="C184" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D184" t="s">
         <v>14</v>
@@ -9027,27 +9027,27 @@
         <v>25</v>
       </c>
       <c r="G184" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H184" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J184" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="K184" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B185" t="s">
         <v>12</v>
       </c>
       <c r="C185" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D185" t="s">
         <v>14</v>
@@ -9059,27 +9059,27 @@
         <v>25</v>
       </c>
       <c r="G185" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H185" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J185" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="K185" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B186" t="s">
         <v>12</v>
       </c>
       <c r="C186" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D186" t="s">
         <v>14</v>
@@ -9091,27 +9091,27 @@
         <v>25</v>
       </c>
       <c r="G186" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H186" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J186" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K186" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B187" t="s">
         <v>12</v>
       </c>
       <c r="C187" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D187" t="s">
         <v>14</v>
@@ -9123,27 +9123,27 @@
         <v>25</v>
       </c>
       <c r="G187" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H187" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J187" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K187" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B188" t="s">
         <v>12</v>
       </c>
       <c r="C188" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D188" t="s">
         <v>14</v>
@@ -9155,21 +9155,21 @@
         <v>25</v>
       </c>
       <c r="G188" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H188" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J188" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="K188" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B189" t="s">
         <v>12</v>
@@ -9187,27 +9187,27 @@
         <v>25</v>
       </c>
       <c r="G189" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H189" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J189" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="K189" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B190" t="s">
         <v>12</v>
       </c>
       <c r="C190" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D190" t="s">
         <v>14</v>
@@ -9219,27 +9219,27 @@
         <v>25</v>
       </c>
       <c r="G190" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H190" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J190" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K190" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B191" t="s">
         <v>12</v>
       </c>
       <c r="C191" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D191" t="s">
         <v>14</v>
@@ -9251,27 +9251,27 @@
         <v>25</v>
       </c>
       <c r="G191" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H191" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J191" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="K191" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B192" t="s">
         <v>12</v>
       </c>
       <c r="C192" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D192" t="s">
         <v>14</v>
@@ -9283,27 +9283,27 @@
         <v>25</v>
       </c>
       <c r="G192" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H192" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J192" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K192" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B193" t="s">
         <v>12</v>
       </c>
       <c r="C193" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D193" t="s">
         <v>14</v>
@@ -9315,27 +9315,27 @@
         <v>25</v>
       </c>
       <c r="G193" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H193" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J193" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="K193" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B194" t="s">
         <v>12</v>
       </c>
       <c r="C194" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D194" t="s">
         <v>19</v>
@@ -9347,27 +9347,27 @@
         <v>1</v>
       </c>
       <c r="G194" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H194" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J194" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="K194" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B195" t="s">
         <v>12</v>
       </c>
       <c r="C195" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D195" t="s">
         <v>14</v>
@@ -9379,27 +9379,27 @@
         <v>25</v>
       </c>
       <c r="G195" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H195" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J195" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="K195" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B196" t="s">
         <v>12</v>
       </c>
       <c r="C196" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D196" t="s">
         <v>14</v>
@@ -9411,27 +9411,27 @@
         <v>25</v>
       </c>
       <c r="G196" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H196" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J196" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="K196" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B197" t="s">
         <v>12</v>
       </c>
       <c r="C197" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D197" t="s">
         <v>14</v>
@@ -9443,27 +9443,27 @@
         <v>25</v>
       </c>
       <c r="G197" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H197" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J197" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="K197" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B198" t="s">
         <v>12</v>
       </c>
       <c r="C198" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D198" t="s">
         <v>14</v>
@@ -9475,27 +9475,27 @@
         <v>25</v>
       </c>
       <c r="G198" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H198" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J198" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="K198" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B199" t="s">
         <v>12</v>
       </c>
       <c r="C199" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D199" t="s">
         <v>14</v>
@@ -9507,21 +9507,21 @@
         <v>25</v>
       </c>
       <c r="G199" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H199" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J199" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="K199" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B200" t="s">
         <v>12</v>
@@ -9539,21 +9539,21 @@
         <v>25</v>
       </c>
       <c r="G200" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H200" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J200" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="K200" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B201" t="s">
         <v>12</v>
@@ -9571,27 +9571,27 @@
         <v>25</v>
       </c>
       <c r="G201" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H201" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J201" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="K201" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B202" t="s">
         <v>12</v>
       </c>
       <c r="C202" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D202" t="s">
         <v>19</v>
@@ -9603,27 +9603,27 @@
         <v>25</v>
       </c>
       <c r="G202" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H202" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J202" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="K202" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B203" t="s">
         <v>12</v>
       </c>
       <c r="C203" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D203" t="s">
         <v>19</v>
@@ -9635,27 +9635,27 @@
         <v>25</v>
       </c>
       <c r="G203" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H203" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J203" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K203" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B204" t="s">
         <v>12</v>
       </c>
       <c r="C204" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D204" t="s">
         <v>19</v>
@@ -9667,27 +9667,27 @@
         <v>25</v>
       </c>
       <c r="G204" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H204" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J204" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="K204" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B205" t="s">
         <v>12</v>
       </c>
       <c r="C205" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D205" t="s">
         <v>19</v>
@@ -9699,27 +9699,27 @@
         <v>1</v>
       </c>
       <c r="G205" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H205" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J205" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="K205" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B206" t="s">
         <v>12</v>
       </c>
       <c r="C206" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D206" t="s">
         <v>19</v>
@@ -9731,27 +9731,27 @@
         <v>25</v>
       </c>
       <c r="G206" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H206" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J206" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="K206" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B207" t="s">
         <v>12</v>
       </c>
       <c r="C207" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D207" t="s">
         <v>19</v>
@@ -9763,27 +9763,27 @@
         <v>25</v>
       </c>
       <c r="G207" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H207" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J207" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="K207" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B208" t="s">
         <v>12</v>
       </c>
       <c r="C208" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D208" t="s">
         <v>19</v>
@@ -9795,27 +9795,27 @@
         <v>25</v>
       </c>
       <c r="G208" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H208" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J208" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="K208" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B209" t="s">
         <v>12</v>
       </c>
       <c r="C209" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D209" t="s">
         <v>19</v>
@@ -9827,27 +9827,27 @@
         <v>25</v>
       </c>
       <c r="G209" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H209" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J209" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="K209" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B210" t="s">
         <v>12</v>
       </c>
       <c r="C210" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D210" t="s">
         <v>19</v>
@@ -9859,27 +9859,27 @@
         <v>25</v>
       </c>
       <c r="G210" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H210" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J210" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="K210" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B211" t="s">
         <v>12</v>
       </c>
       <c r="C211" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D211" t="s">
         <v>19</v>
@@ -9891,27 +9891,27 @@
         <v>25</v>
       </c>
       <c r="G211" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H211" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J211" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="K211" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B212" t="s">
         <v>12</v>
       </c>
       <c r="C212" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D212" t="s">
         <v>19</v>
@@ -9923,27 +9923,27 @@
         <v>25</v>
       </c>
       <c r="G212" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H212" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J212" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="K212" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B213" t="s">
         <v>12</v>
       </c>
       <c r="C213" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D213" t="s">
         <v>19</v>
@@ -9955,27 +9955,27 @@
         <v>25</v>
       </c>
       <c r="G213" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H213" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J213" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="K213" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B214" t="s">
         <v>12</v>
       </c>
       <c r="C214" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D214" t="s">
         <v>19</v>
@@ -9987,27 +9987,27 @@
         <v>25</v>
       </c>
       <c r="G214" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H214" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J214" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="K214" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B215" t="s">
         <v>12</v>
       </c>
       <c r="C215" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D215" t="s">
         <v>19</v>
@@ -10019,27 +10019,27 @@
         <v>25</v>
       </c>
       <c r="G215" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H215" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J215" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="K215" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B216" t="s">
         <v>12</v>
       </c>
       <c r="C216" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D216" t="s">
         <v>19</v>
@@ -10051,21 +10051,21 @@
         <v>1</v>
       </c>
       <c r="G216" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H216" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J216" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="K216" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B217" t="s">
         <v>12</v>
@@ -10083,27 +10083,27 @@
         <v>25</v>
       </c>
       <c r="G217" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H217" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J217" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="K217" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B218" t="s">
         <v>12</v>
       </c>
       <c r="C218" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D218" t="s">
         <v>19</v>
@@ -10115,27 +10115,27 @@
         <v>25</v>
       </c>
       <c r="G218" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H218" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J218" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="K218" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B219" t="s">
         <v>12</v>
       </c>
       <c r="C219" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D219" t="s">
         <v>19</v>
@@ -10147,27 +10147,27 @@
         <v>25</v>
       </c>
       <c r="G219" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H219" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J219" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K219" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B220" t="s">
         <v>12</v>
       </c>
       <c r="C220" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D220" t="s">
         <v>19</v>
@@ -10179,27 +10179,27 @@
         <v>25</v>
       </c>
       <c r="G220" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H220" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J220" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="K220" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B221" t="s">
         <v>12</v>
       </c>
       <c r="C221" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D221" t="s">
         <v>19</v>
@@ -10211,27 +10211,27 @@
         <v>25</v>
       </c>
       <c r="G221" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H221" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J221" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="K221" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B222" t="s">
         <v>12</v>
       </c>
       <c r="C222" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D222" t="s">
         <v>19</v>
@@ -10243,27 +10243,27 @@
         <v>25</v>
       </c>
       <c r="G222" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H222" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J222" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="K222" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B223" t="s">
         <v>12</v>
       </c>
       <c r="C223" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D223" t="s">
         <v>19</v>
@@ -10275,27 +10275,27 @@
         <v>25</v>
       </c>
       <c r="G223" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H223" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J223" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="K223" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B224" t="s">
         <v>12</v>
       </c>
       <c r="C224" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D224" t="s">
         <v>19</v>
@@ -10307,27 +10307,27 @@
         <v>25</v>
       </c>
       <c r="G224" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H224" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J224" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K224" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B225" t="s">
         <v>12</v>
       </c>
       <c r="C225" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D225" t="s">
         <v>19</v>
@@ -10339,27 +10339,27 @@
         <v>25</v>
       </c>
       <c r="G225" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H225" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J225" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K225" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B226" t="s">
         <v>12</v>
       </c>
       <c r="C226" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D226" t="s">
         <v>19</v>
@@ -10371,21 +10371,21 @@
         <v>25</v>
       </c>
       <c r="G226" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H226" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J226" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="K226" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B227" t="s">
         <v>12</v>
@@ -10403,21 +10403,21 @@
         <v>0</v>
       </c>
       <c r="G227" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H227" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J227" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K227" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B228" t="s">
         <v>12</v>
@@ -10435,21 +10435,21 @@
         <v>0.5</v>
       </c>
       <c r="G228" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H228" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J228" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="K228" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B229" t="s">
         <v>12</v>
@@ -10467,21 +10467,21 @@
         <v>0.5</v>
       </c>
       <c r="G229" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H229" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J229" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="K229" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B230" t="s">
         <v>12</v>
@@ -10499,21 +10499,21 @@
         <v>0.5</v>
       </c>
       <c r="G230" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H230" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J230" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="K230" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B231" t="s">
         <v>12</v>
@@ -10531,21 +10531,21 @@
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H231" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J231" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="K231" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B232" t="s">
         <v>12</v>
@@ -10563,21 +10563,21 @@
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H232" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J232" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="K232" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B233" t="s">
         <v>12</v>
@@ -10595,21 +10595,21 @@
         <v>1</v>
       </c>
       <c r="G233" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H233" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J233" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="K233" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B234" t="s">
         <v>12</v>
@@ -10627,21 +10627,21 @@
         <v>1</v>
       </c>
       <c r="G234" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H234" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J234" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="K234" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B235" t="s">
         <v>12</v>
@@ -10659,21 +10659,21 @@
         <v>1</v>
       </c>
       <c r="G235" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H235" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J235" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K235" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B236" t="s">
         <v>12</v>
@@ -10691,21 +10691,21 @@
         <v>1</v>
       </c>
       <c r="G236" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H236" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J236" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="K236" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B237" t="s">
         <v>12</v>
@@ -10723,21 +10723,21 @@
         <v>1</v>
       </c>
       <c r="G237" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H237" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J237" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="K237" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B238" t="s">
         <v>12</v>
@@ -10755,21 +10755,21 @@
         <v>0</v>
       </c>
       <c r="G238" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H238" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J238" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K238" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B239" t="s">
         <v>12</v>
@@ -10787,21 +10787,21 @@
         <v>1</v>
       </c>
       <c r="G239" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H239" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J239" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K239" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B240" t="s">
         <v>12</v>
@@ -10819,21 +10819,21 @@
         <v>1</v>
       </c>
       <c r="G240" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H240" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J240" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K240" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B241" t="s">
         <v>12</v>
@@ -10851,21 +10851,21 @@
         <v>1.5</v>
       </c>
       <c r="G241" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H241" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J241" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K241" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B242" t="s">
         <v>12</v>
@@ -10883,21 +10883,21 @@
         <v>1.5</v>
       </c>
       <c r="G242" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H242" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J242" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="K242" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B243" t="s">
         <v>12</v>
@@ -10915,21 +10915,21 @@
         <v>1.5</v>
       </c>
       <c r="G243" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H243" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J243" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K243" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B244" t="s">
         <v>12</v>
@@ -10947,21 +10947,21 @@
         <v>1.5</v>
       </c>
       <c r="G244" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H244" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J244" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="K244" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B245" t="s">
         <v>12</v>
@@ -10979,21 +10979,21 @@
         <v>1.5</v>
       </c>
       <c r="G245" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H245" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J245" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K245" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B246" t="s">
         <v>12</v>
@@ -11011,21 +11011,21 @@
         <v>1.5</v>
       </c>
       <c r="G246" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H246" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J246" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K246" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B247" t="s">
         <v>12</v>
@@ -11043,21 +11043,21 @@
         <v>2</v>
       </c>
       <c r="G247" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H247" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J247" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="K247" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B248" t="s">
         <v>12</v>
@@ -11075,21 +11075,21 @@
         <v>2</v>
       </c>
       <c r="G248" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H248" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J248" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K248" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B249" t="s">
         <v>12</v>
@@ -11107,21 +11107,21 @@
         <v>0</v>
       </c>
       <c r="G249" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H249" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J249" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="K249" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B250" t="s">
         <v>12</v>
@@ -11139,21 +11139,21 @@
         <v>2</v>
       </c>
       <c r="G250" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H250" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J250" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K250" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B251" t="s">
         <v>12</v>
@@ -11171,21 +11171,21 @@
         <v>2</v>
       </c>
       <c r="G251" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H251" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J251" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K251" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B252" t="s">
         <v>12</v>
@@ -11203,21 +11203,21 @@
         <v>2</v>
       </c>
       <c r="G252" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H252" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J252" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="K252" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B253" t="s">
         <v>12</v>
@@ -11235,21 +11235,21 @@
         <v>2</v>
       </c>
       <c r="G253" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H253" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J253" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="K253" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B254" t="s">
         <v>12</v>
@@ -11267,21 +11267,21 @@
         <v>2</v>
       </c>
       <c r="G254" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H254" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J254" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="K254" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B255" t="s">
         <v>12</v>
@@ -11299,21 +11299,21 @@
         <v>2</v>
       </c>
       <c r="G255" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H255" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J255" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K255" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B256" t="s">
         <v>12</v>
@@ -11331,21 +11331,21 @@
         <v>2</v>
       </c>
       <c r="G256" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H256" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J256" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K256" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B257" t="s">
         <v>12</v>
@@ -11363,21 +11363,21 @@
         <v>3</v>
       </c>
       <c r="G257" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H257" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J257" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="K257" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B258" t="s">
         <v>12</v>
@@ -11395,21 +11395,21 @@
         <v>3</v>
       </c>
       <c r="G258" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H258" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J258" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="K258" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B259" t="s">
         <v>12</v>
@@ -11427,21 +11427,21 @@
         <v>3</v>
       </c>
       <c r="G259" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H259" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J259" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="K259" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B260" t="s">
         <v>12</v>
@@ -11459,21 +11459,21 @@
         <v>0.5</v>
       </c>
       <c r="G260" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H260" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J260" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="K260" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B261" t="s">
         <v>12</v>
@@ -11491,21 +11491,21 @@
         <v>3</v>
       </c>
       <c r="G261" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H261" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J261" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="K261" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B262" t="s">
         <v>12</v>
@@ -11523,21 +11523,21 @@
         <v>3</v>
       </c>
       <c r="G262" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H262" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J262" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="K262" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B263" t="s">
         <v>12</v>
@@ -11555,21 +11555,21 @@
         <v>3</v>
       </c>
       <c r="G263" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H263" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J263" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="K263" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B264" t="s">
         <v>12</v>
@@ -11587,21 +11587,21 @@
         <v>4</v>
       </c>
       <c r="G264" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H264" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J264" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K264" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B265" t="s">
         <v>12</v>
@@ -11619,21 +11619,21 @@
         <v>4</v>
       </c>
       <c r="G265" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H265" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J265" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="K265" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B266" t="s">
         <v>12</v>
@@ -11651,21 +11651,21 @@
         <v>4</v>
       </c>
       <c r="G266" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H266" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J266" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="K266" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B267" t="s">
         <v>12</v>
@@ -11683,21 +11683,21 @@
         <v>4</v>
       </c>
       <c r="G267" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H267" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J267" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="K267" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B268" t="s">
         <v>12</v>
@@ -11715,21 +11715,21 @@
         <v>4</v>
       </c>
       <c r="G268" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H268" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J268" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="K268" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B269" t="s">
         <v>12</v>
@@ -11747,21 +11747,21 @@
         <v>4</v>
       </c>
       <c r="G269" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H269" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J269" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="K269" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B270" t="s">
         <v>12</v>
@@ -11779,21 +11779,21 @@
         <v>4</v>
       </c>
       <c r="G270" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H270" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J270" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="K270" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B271" t="s">
         <v>12</v>
@@ -11811,21 +11811,21 @@
         <v>0.5</v>
       </c>
       <c r="G271" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H271" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J271" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="K271" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B272" t="s">
         <v>12</v>
@@ -11843,21 +11843,21 @@
         <v>4</v>
       </c>
       <c r="G272" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H272" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J272" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="K272" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B273" t="s">
         <v>12</v>
@@ -11875,21 +11875,21 @@
         <v>4</v>
       </c>
       <c r="G273" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H273" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J273" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K273" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B274" t="s">
         <v>12</v>
@@ -11907,21 +11907,21 @@
         <v>8</v>
       </c>
       <c r="G274" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H274" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J274" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="K274" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B275" t="s">
         <v>12</v>
@@ -11939,21 +11939,21 @@
         <v>8</v>
       </c>
       <c r="G275" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H275" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J275" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="K275" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B276" t="s">
         <v>12</v>
@@ -11971,21 +11971,21 @@
         <v>8</v>
       </c>
       <c r="G276" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H276" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J276" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="K276" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B277" t="s">
         <v>12</v>
@@ -12003,21 +12003,21 @@
         <v>8</v>
       </c>
       <c r="G277" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H277" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J277" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="K277" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B278" t="s">
         <v>12</v>
@@ -12035,21 +12035,21 @@
         <v>8</v>
       </c>
       <c r="G278" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H278" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J278" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="K278" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B279" t="s">
         <v>12</v>
@@ -12067,21 +12067,21 @@
         <v>8</v>
       </c>
       <c r="G279" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H279" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J279" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K279" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B280" t="s">
         <v>12</v>
@@ -12099,21 +12099,21 @@
         <v>25</v>
       </c>
       <c r="G280" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H280" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J280" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K280" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B281" t="s">
         <v>12</v>
@@ -12131,21 +12131,21 @@
         <v>25</v>
       </c>
       <c r="G281" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H281" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J281" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="K281" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B282" t="s">
         <v>12</v>
@@ -12163,21 +12163,21 @@
         <v>0.5</v>
       </c>
       <c r="G282" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H282" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J282" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="K282" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B283" t="s">
         <v>12</v>
@@ -12195,21 +12195,21 @@
         <v>25</v>
       </c>
       <c r="G283" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H283" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J283" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K283" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B284" t="s">
         <v>12</v>
@@ -12227,21 +12227,21 @@
         <v>25</v>
       </c>
       <c r="G284" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H284" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J284" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="K284" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B285" t="s">
         <v>12</v>
@@ -12259,21 +12259,21 @@
         <v>25</v>
       </c>
       <c r="G285" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H285" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J285" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K285" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B286" t="s">
         <v>12</v>
@@ -12291,21 +12291,21 @@
         <v>25</v>
       </c>
       <c r="G286" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H286" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J286" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="K286" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B287" t="s">
         <v>12</v>
@@ -12323,21 +12323,21 @@
         <v>25</v>
       </c>
       <c r="G287" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H287" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J287" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="K287" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B288" t="s">
         <v>12</v>
@@ -12355,21 +12355,21 @@
         <v>25</v>
       </c>
       <c r="G288" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H288" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J288" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="K288" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B289" t="s">
         <v>12</v>
@@ -12387,21 +12387,21 @@
         <v>25</v>
       </c>
       <c r="G289" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H289" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J289" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="K289" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B290" t="s">
         <v>12</v>
@@ -12419,21 +12419,21 @@
         <v>0.5</v>
       </c>
       <c r="G290" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H290" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J290" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="K290" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B291" t="s">
         <v>12</v>
@@ -12451,21 +12451,21 @@
         <v>0.5</v>
       </c>
       <c r="G291" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H291" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J291" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="K291" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B292" t="s">
         <v>12</v>
@@ -12483,16 +12483,16 @@
         <v>0.5</v>
       </c>
       <c r="G292" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H292" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J292" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="K292" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
   </sheetData>
